--- a/SSDMS_Requirements/SCGJ_Updated_Excel/Batch.xlsx
+++ b/SSDMS_Requirements/SCGJ_Updated_Excel/Batch.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>batchName</t>
   </si>
@@ -69,9 +69,6 @@
     <t>totalCertified</t>
   </si>
   <si>
-    <t>certificateDownloaded</t>
-  </si>
-  <si>
     <t>batchAssignmentDate</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Star/Non-Star</t>
-  </si>
-  <si>
     <t>Market Mode/Surya Mitra/NDC/FDC</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>1702KA000205JSGJ/Q0103-00001508</t>
   </si>
   <si>
-    <t>STAR</t>
-  </si>
-  <si>
     <t>Market Mode</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>trainingPartnerId</t>
   </si>
   <si>
@@ -139,6 +127,15 @@
   </si>
   <si>
     <t>Any (Except Integer)</t>
+  </si>
+  <si>
+    <t>PMKVY/NON-PMKVY</t>
+  </si>
+  <si>
+    <t>PMKVY</t>
+  </si>
+  <si>
+    <t>AB-1234</t>
   </si>
 </sst>
 </file>
@@ -210,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -218,11 +215,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -242,24 +268,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -267,12 +276,37 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,44 +604,44 @@
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.21875" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.77734375" style="2" customWidth="1"/>
     <col min="8" max="8" width="33.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="15" customWidth="1"/>
     <col min="11" max="11" width="28.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="21.44140625" style="2" customWidth="1"/>
     <col min="14" max="14" width="22.33203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="18.109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="16.77734375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" style="11" customWidth="1"/>
+    <col min="17" max="17" width="24.109375" style="15" customWidth="1"/>
     <col min="18" max="18" width="14.88671875" style="2" customWidth="1"/>
     <col min="19" max="19" width="17.33203125" style="2" customWidth="1"/>
     <col min="20" max="20" width="19.21875" style="2" customWidth="1"/>
     <col min="21" max="21" width="17.21875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="23.77734375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="23.33203125" style="11" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" style="11" customWidth="1"/>
-    <col min="25" max="25" width="11.21875" style="2" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="2" customWidth="1"/>
-    <col min="27" max="40" width="8.88671875" style="17"/>
+    <col min="22" max="22" width="23.77734375" style="15" customWidth="1"/>
+    <col min="23" max="23" width="23.33203125" style="15" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" style="8" customWidth="1"/>
+    <col min="25" max="25" width="11.21875" style="22" customWidth="1"/>
+    <col min="26" max="26" width="13.88671875" style="11" customWidth="1"/>
+    <col min="27" max="40" width="8.88671875" style="11"/>
     <col min="41" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -615,14 +649,14 @@
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>34</v>
+      <c r="D1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -630,10 +664,10 @@
       <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -654,7 +688,7 @@
       <c r="P1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R1" s="7" t="s">
@@ -669,101 +703,95 @@
       <c r="U1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="9" t="s">
-        <v>19</v>
+      <c r="X1" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="AO1" s="11"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="I2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="J2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>20</v>
+      <c r="Q2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="25" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -771,13 +799,13 @@
         <v>5518</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1">
-        <v>123</v>
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E3" s="3">
         <v>403</v>
@@ -789,19 +817,19 @@
         <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="10">
+        <v>24</v>
+      </c>
+      <c r="I3" s="14">
         <v>42796</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="14">
         <v>42829</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1">
         <v>71</v>
@@ -813,9 +841,9 @@
         <v>4</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="12">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="18">
         <v>42828</v>
       </c>
       <c r="R3" s="1">
@@ -830,19 +858,16 @@
       <c r="U3" s="1">
         <v>36</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="13">
+      <c r="V3" s="19">
         <v>42814</v>
       </c>
-      <c r="X3" s="14">
+      <c r="W3" s="20">
         <v>43195</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="X3" s="1">
         <v>123</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Y3" s="22">
         <v>456</v>
       </c>
     </row>

--- a/SSDMS_Requirements/SCGJ_Updated_Excel/Batch.xlsx
+++ b/SSDMS_Requirements/SCGJ_Updated_Excel/Batch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6552"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>batchName</t>
   </si>
@@ -87,21 +87,6 @@
     <t>Yes/No</t>
   </si>
   <si>
-    <t>1702KA000205JSGJ/Q0103-00001508</t>
-  </si>
-  <si>
-    <t>Market Mode</t>
-  </si>
-  <si>
-    <t>Solar Pv Installer (Suryamitra)</t>
-  </si>
-  <si>
-    <t>SGJ/Q0102</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>trainingPartnerId</t>
   </si>
   <si>
@@ -130,20 +115,15 @@
   </si>
   <si>
     <t>PMKVY/NON-PMKVY</t>
-  </si>
-  <si>
-    <t>PMKVY</t>
-  </si>
-  <si>
-    <t>AB-1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -170,9 +150,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -207,21 +190,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -234,11 +208,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -248,71 +226,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -601,280 +585,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.44140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.77734375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="24.109375" style="15" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="19.21875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="17.21875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="23.77734375" style="15" customWidth="1"/>
-    <col min="23" max="23" width="23.33203125" style="15" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" style="8" customWidth="1"/>
-    <col min="25" max="25" width="11.21875" style="22" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="11" customWidth="1"/>
-    <col min="27" max="40" width="8.88671875" style="11"/>
-    <col min="41" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="16.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="32.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.77734375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="25.88671875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.21875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.21875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="25" style="4" customWidth="1"/>
+    <col min="23" max="23" width="25.44140625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="18.6640625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:25" s="19" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="19" customFormat="1">
+      <c r="A2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO1" s="11"/>
-    </row>
-    <row r="2" spans="1:41">
-      <c r="A2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="24" t="s">
+      <c r="N2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="R2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="24" t="s">
+      <c r="W2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41">
-      <c r="A3" s="1">
-        <v>5518</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3">
-        <v>403</v>
-      </c>
-      <c r="F3" s="1">
-        <v>456</v>
-      </c>
-      <c r="G3" s="3">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="14">
-        <v>42796</v>
-      </c>
-      <c r="J3" s="14">
-        <v>42829</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="1">
-        <v>71</v>
-      </c>
-      <c r="N3" s="1">
-        <v>69</v>
-      </c>
-      <c r="O3" s="1">
-        <v>4</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>42828</v>
-      </c>
-      <c r="R3" s="1">
-        <v>56</v>
-      </c>
-      <c r="S3" s="1">
-        <v>21</v>
-      </c>
-      <c r="T3" s="1">
-        <v>5</v>
-      </c>
-      <c r="U3" s="1">
-        <v>36</v>
-      </c>
-      <c r="V3" s="19">
-        <v>42814</v>
-      </c>
-      <c r="W3" s="20">
-        <v>43195</v>
-      </c>
-      <c r="X3" s="1">
-        <v>123</v>
-      </c>
-      <c r="Y3" s="22">
-        <v>456</v>
+      <c r="X2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C97D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C97D" sheet="1" objects="1" scenarios="1" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SSDMS_Requirements/SCGJ_Updated_Excel/Batch.xlsx
+++ b/SSDMS_Requirements/SCGJ_Updated_Excel/Batch.xlsx
@@ -78,9 +78,6 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Market Mode/Surya Mitra/NDC/FDC</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>PMKVY/NON-PMKVY</t>
+  </si>
+  <si>
+    <t>Market Mode/Surya Mitra/NBCFDC</t>
   </si>
 </sst>
 </file>
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -283,6 +283,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +594,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -624,7 +630,7 @@
   <sheetData>
     <row r="1" spans="1:25" s="19" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -633,13 +639,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
@@ -656,7 +662,7 @@
       <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="21" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="12" t="s">
@@ -665,7 +671,7 @@
       <c r="N1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="21" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="12" t="s">
@@ -693,10 +699,10 @@
         <v>18</v>
       </c>
       <c r="X1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="19" customFormat="1">
@@ -704,53 +710,53 @@
         <v>19</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="L2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="R2" s="16" t="s">
         <v>19</v>
       </c>
@@ -764,10 +770,10 @@
         <v>19</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X2" s="16" t="s">
         <v>19</v>

--- a/SSDMS_Requirements/SCGJ_Updated_Excel/Batch.xlsx
+++ b/SSDMS_Requirements/SCGJ_Updated_Excel/Batch.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>batchName</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>PMKVY/NON-PMKVY</t>
-  </si>
-  <si>
-    <t>Market Mode/Surya Mitra/NBCFDC</t>
   </si>
 </sst>
 </file>
@@ -594,7 +591,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -728,7 +725,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>20</v>

--- a/SSDMS_Requirements/SCGJ_Updated_Excel/Batch.xlsx
+++ b/SSDMS_Requirements/SCGJ_Updated_Excel/Batch.xlsx
@@ -11,12 +11,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Any">[0]!BatchMode</definedName>
+    <definedName name="BatchMode">Sheet2!$A$2:$A$10</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>batchName</t>
   </si>
@@ -112,6 +116,39 @@
   </si>
   <si>
     <t>PMKVY/NON-PMKVY</t>
+  </si>
+  <si>
+    <t>BatchMode</t>
+  </si>
+  <si>
+    <t>PMKVY-RPL</t>
+  </si>
+  <si>
+    <t>PMKVY-STT</t>
+  </si>
+  <si>
+    <t>PMKVY-Special</t>
+  </si>
+  <si>
+    <t>NSKFDC</t>
+  </si>
+  <si>
+    <t>NBCFDC</t>
+  </si>
+  <si>
+    <t>CB_Scheme</t>
+  </si>
+  <si>
+    <t>State Skill</t>
+  </si>
+  <si>
+    <t>MNRE</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Select from DropDown List</t>
   </si>
 </sst>
 </file>
@@ -223,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -285,6 +322,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -725,7 +765,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>20</v>
@@ -781,6 +821,11 @@
     </row>
   </sheetData>
   <sheetProtection password="C97D" sheet="1" objects="1" scenarios="1" deleteRows="0"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+      <formula1>BatchMode</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -788,13 +833,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
